--- a/biology/Zoologie/Blaff_de_poissons/Blaff_de_poissons.xlsx
+++ b/biology/Zoologie/Blaff_de_poissons/Blaff_de_poissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le blaff de poissons, à ne pas confondre avec le « court-bouillon de poissons à l'antillaise », (blaff : bouillon en créole[1]) est une recette de cuisine traditionnelle des cuisines antillaise et guyanaise, à base de ragoût de poissons (ou de crustacés, ou de poulet) déposés dans une marinade de jus de citron vert, oignon, bouquet garni, piment de Cayenne[2], puis cuits au court-bouillon.
+Le blaff de poissons, à ne pas confondre avec le « court-bouillon de poissons à l'antillaise », (blaff : bouillon en créole) est une recette de cuisine traditionnelle des cuisines antillaise et guyanaise, à base de ragoût de poissons (ou de crustacés, ou de poulet) déposés dans une marinade de jus de citron vert, oignon, bouquet garni, piment de Cayenne, puis cuits au court-bouillon.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce plat antillo-guyanais traditionnel est cuisiné avec un mélange de un ou plusieurs poissons des Antilles, tels que le vivaneau, le thon, ou le thazard[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce plat antillo-guyanais traditionnel est cuisiné avec un mélange de un ou plusieurs poissons des Antilles, tels que le vivaneau, le thon, ou le thazard.
 			Marinade de blaff de poisson au citron vert.
-Le poisson frais et cru est coupé en morceaux et mis à macérer pendant une heure ou deux dans une marinade de jus de citron vert (le citron parfume et cuit le poisson) avec gousses d'ail écrasées, piment coupé en morceaux (bois d'Inde, piment de Cayenne…), sel et poivre. Le poisson est ensuite cuit environ 15 minutes dans un court-bouillon à ébullition, à base d'huile et d'oignons, ail écrasé et bouquet garni de la marinade[3],[4].
-Le plat est servi avec des légumes locaux, dont par exemple, ignames, riz, choux durs, patates douces, taro, fruit à pain, rondelles de banane[3],[5], agrémenté des jus de citron vert et piment de la marinade.
+Le poisson frais et cru est coupé en morceaux et mis à macérer pendant une heure ou deux dans une marinade de jus de citron vert (le citron parfume et cuit le poisson) avec gousses d'ail écrasées, piment coupé en morceaux (bois d'Inde, piment de Cayenne…), sel et poivre. Le poisson est ensuite cuit environ 15 minutes dans un court-bouillon à ébullition, à base d'huile et d'oignons, ail écrasé et bouquet garni de la marinade,.
+Le plat est servi avec des légumes locaux, dont par exemple, ignames, riz, choux durs, patates douces, taro, fruit à pain, rondelles de banane agrémenté des jus de citron vert et piment de la marinade.
 </t>
         </is>
       </c>
